--- a/4_git_svn_composer/git_tool.xlsx
+++ b/4_git_svn_composer/git_tool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>.gitignore对.idea文件忽略没效果</t>
   </si>
   <si>
+    <t>方法一</t>
+  </si>
+  <si>
     <t>在.idea文件目录运行git.bash</t>
   </si>
   <si>
@@ -35,6 +38,48 @@
   </si>
   <si>
     <t>【原因就是git已经关联追踪了这些文件，再次设置ignore时无效。需要执行一次 git rm -r --cached 目录名称/文件名称】</t>
+  </si>
+  <si>
+    <t>方法二</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/zwkkkk1/article/details/83550032</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当我们将 .gitignore 文件配置好后，却往往不能失效。这是因为 .gitignore 只能忽略那些没有被追踪(track)的文件，因为 git 存在本地缓存，如果文件已经纳入了版本管理，那么修改 .gitignore 是不能失效的。那么解决方案就是要将 git 的本地缓存删除，然后重新提交。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">git rm -r --cached . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">git add . </t>
+  </si>
+  <si>
+    <t>git commit -m "update .gitignore"</t>
+  </si>
+  <si>
+    <t>未改任何东西。却git status有大量改动。git diff 某文件。出现（old mode 100644、new mode 10075）</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/sunzhenxing19860608/p/6066394.html</t>
+  </si>
+  <si>
+    <t>git config --add core.filemode false</t>
   </si>
   <si>
     <t>git gc</t>
@@ -49,11 +94,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +113,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,14 +166,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -114,11 +174,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,16 +189,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,39 +205,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,21 +268,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,25 +282,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,31 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,121 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +473,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -433,80 +568,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -518,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,139 +591,164 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -985,16 +1071,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A46:I56"/>
+  <dimension ref="A46:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.25" defaultRowHeight="22.5"/>
   <cols>
-    <col min="1" max="1" width="41.25" style="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="52.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="2" customWidth="1"/>
     <col min="3" max="16384" width="41.25" style="1"/>
   </cols>
   <sheetData>
@@ -1002,89 +1088,185 @@
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="3:9">
-      <c r="C47" s="2" t="s">
+      <c r="C46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="3:9">
-      <c r="C48" s="2" t="s">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="3"/>
+      <c r="C47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="3:9">
-      <c r="C49" s="2" t="s">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="3"/>
+      <c r="C48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="3:9">
-      <c r="C50" s="2" t="s">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="3"/>
+      <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="3:7">
-      <c r="C51" s="2" t="s">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="3"/>
+      <c r="C50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="3"/>
+      <c r="C51" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="C53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="5"/>
+      <c r="C54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="5"/>
+      <c r="C55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="5"/>
+      <c r="C56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="5"/>
+      <c r="C57" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="C61" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="C46:I46"/>
     <mergeCell ref="C47:I47"/>
     <mergeCell ref="C48:I48"/>
     <mergeCell ref="C49:I49"/>
     <mergeCell ref="C50:I50"/>
     <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B53:B57"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink ref="C53" r:id="rId1" display="https://blog.csdn.net/zwkkkk1/article/details/83550032"/>
+    <hyperlink ref="C60" r:id="rId2" display="https://www.cnblogs.com/sunzhenxing19860608/p/6066394.html"/>
+  </hyperlinks>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
